--- a/biology/Médecine/Tache/Tache.xlsx
+++ b/biology/Médecine/Tache/Tache.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une tache est une décoloration ou une altération de la couleur sur une partie d'un tissu, d'un vêtement, ou tout autre type d'objet, le plus souvent créée involontairement.
 Les taches peuvent être provoquées par la nourriture, la boisson ou différents types de liquides.
@@ -514,12 +526,14 @@
           <t>Tache et textile</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La façon la plus courante de se prémunir des taches est de porter une couche de protection en l'état d'un vêtement destiné à cet usage : bavoir, blouse, tablier, etc.
 L'industrie textile développe également des produits résistants aux taches.
 Certaines méthodes de teinture sont basées sur le principe de la tache : le tissu est noué afin d'obtenir une teinture qui joue sur la densité de couleur des différentes taches.
-Il existe de nombreuses méthodes pour enlever des taches d'un textile. Au-delà de la lessive, les produits détachants, le savon de Marseille, le bicarbonate de soude, l'eau de Javel, et le vinaigre sont très souvent utilisés[1].
+Il existe de nombreuses méthodes pour enlever des taches d'un textile. Au-delà de la lessive, les produits détachants, le savon de Marseille, le bicarbonate de soude, l'eau de Javel, et le vinaigre sont très souvent utilisés.
 </t>
         </is>
       </c>
